--- a/spider2023/行业研报.xlsx
+++ b/spider2023/行业研报.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="全行业" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="多元金融" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,39 +426,39 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>机械设备行业跟踪周报：推荐碳化硅设备和材料产业链；持续关注国产化加速的工业母机行业</t>
+          <t>研报名称</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>东吴证券</t>
+          <t>机构名称</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2023-11-26</t>
+          <t>发布时间</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>行业</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>https://pdf.dfcfw.com/pdf/H3_AP202311261612382928_1.pdf?1701021307000.pdf</t>
+          <t>研报地址</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>机械设备行业周报：关注周期复苏和新兴产业发展</t>
+          <t>农业周观点：养殖预期抬升，重视动保板块机会</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>信达证券</t>
+          <t>中航证券</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -466,124 +468,107 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>农牧饲渔</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://pdf.dfcfw.com/pdf/H3_AP202311261612382937_1.pdf?1701022286000.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>非银行金融行业养老产业专题研究（六）：个人养老金试点首年追踪与展望</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>平安证券</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2023-11-24</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>多元金融</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H3_AP202311241612217067_1.pdf?1700814379000.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>非银金融行业：我国进一步释放开放信号</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>信达证券</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2023-11-26</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>多元金融</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H3_AP202311261612382340_1.pdf?1701011436000.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>绿色金融双周报：央行关注绿色金融与转型金融的有效衔接</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>平安证券</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2023-11-23</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>多元金融</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H3_AP202311231612204254_1.pdf?1700752639000.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>钢铁行业周报：库存低位叠加需求改善，钢铁盈利回升</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>华安证券</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2023-11-26</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>钢铁行业</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H3_AP202311261612382933_1.pdf?1701021586000.pdf</t>
+          <t>https://pdf.dfcfw.com/pdf/H3_AP202311261612383312_1.pdf?1701078866000.pdf</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>研报名称</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>机构名称</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>发布时间</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>研报地址</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>非银行金融行业养老产业专题研究（六）：个人养老金试点首年追踪与展望</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>平安证券</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>多元金融</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H3_AP202311241612217067_1.pdf?1700814379000.pdf</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>